--- a/stats/passing-networks/nwsl-2016/ptfc_2016_pass_network.xlsx
+++ b/stats/passing-networks/nwsl-2016/ptfc_2016_pass_network.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="20840" windowHeight="14660" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="25540" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pass network" sheetId="1" r:id="rId1"/>
@@ -391,67 +391,7 @@
     <cellStyle name="Output" xfId="2" builtinId="21"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -757,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:Z2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2787,7 +2727,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:Z2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4841,7 +4781,7 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7641,7 +7581,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:Z26">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>""</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7681,8 +7621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10482,7 +10422,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:Z26">
-    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10695,7 +10635,7 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13495,7 +13435,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:Z26">
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
